--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -519,16 +519,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4717740812822536</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2.294354177841478</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-80</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6944563907889574</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>2.338313636684656</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-50</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.141401002399814</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>2.945714896359346</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-50</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.592052419561037</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3.453941539228555</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-25</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.822989747231286</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>3.533487864357417</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-25</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.81919297181809</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>3.490604922813462</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>50</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-25</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.734404502026614</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>3.420253423071108</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-40</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.653174988296831</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>3.389873616455827</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>5</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-40</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.474086684297372</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3.246607678466165</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-60</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.080450334072148</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>2.867743687971831</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-60</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5765908473000206</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2.407114325838267</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>5</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-80</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2560500939672131</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>1.998552299724211</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>6</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-75</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2997052537061835</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2.155107083232436</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5625095873295587</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2.482578211178781</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>6</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-50</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7243819487362394</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>2.521893525020176</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-50</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.639461046292189</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2.341169665744484</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1783,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4717740812822536</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2.294354177841478</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-80</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6944563907889574</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>2.338313636684656</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.141401002399814</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2.945714896359346</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-50</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.592052419561037</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3.453941539228555</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-25</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.822989747231286</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>3.533487864357417</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>50</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-25</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.81919297181809</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>3.490604922813462</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>50</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-25</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.734404502026614</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>3.420253423071108</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-25</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-40</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.653174988296831</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>3.389873616455827</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>5</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-25</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-40</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.474086684297372</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>3.246607678466165</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-60</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.080450334072148</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>2.867743687971831</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-60</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5765908473000206</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>2.407114325838267</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>5</v>
       </c>
-      <c r="H12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-75</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-80</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2560500939672131</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1.998552299724211</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>6</v>
       </c>
-      <c r="H13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-75</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2997052537061835</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>2.155107083232436</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="H14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-75</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5625095873295587</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>2.482578211178781</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>6</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7243819487362394</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>2.521893525020176</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.639461046292189</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>2.341169665744484</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="H17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -522,13 +522,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -767,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -843,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-22 to 2024-12-01</t>
+          <t>2023-01-22 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev Sales</t>
+          <t>Std Dev</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Historical Sales</t>
+          <t>Total Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>146 units</t>
+          <t>144</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total Forecast (16 Weeks)</t>
+          <t>4 Weeks Forecast</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Forecast (8 Weeks)</t>
+          <t>8 Weeks Forecast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Forecast (4 Weeks)</t>
+          <t>16 Weeks Forecast</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>2.15</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -500,8 +500,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>2.15</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -535,8 +535,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>2.15</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -570,8 +570,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -605,8 +605,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -640,8 +640,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -675,8 +675,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -710,8 +710,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -745,8 +745,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -780,8 +780,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -815,8 +815,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -850,8 +850,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -885,8 +885,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -920,8 +920,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -955,8 +955,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -990,8 +990,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1025,8 +1025,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -500,8 +500,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -605,8 +605,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -815,8 +815,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -535,7 +535,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -570,7 +570,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -605,7 +605,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -640,7 +640,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -675,7 +675,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,7 +710,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -815,7 +815,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -885,7 +885,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -920,7 +920,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -955,7 +955,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -990,7 +990,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1025,7 +1025,7 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,13 +522,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -662,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -700,10 +700,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -767,13 +767,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-22 to 2024-11-24</t>
+          <t>2023-01-22 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>144 units</t>
+          <t>149 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,16 +477,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -490,33 +497,38 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -525,33 +537,38 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -560,33 +577,38 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -595,33 +617,38 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -630,33 +657,38 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -665,103 +697,118 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -770,17 +817,20 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Q670M D3H</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-22 to 2024-12-29</t>
+          <t>2023-01-22 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>149 units</t>
+          <t>150 units</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-22 to 2025-01-05</t>
+          <t>2023-01-22 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>150 units</t>
+          <t>152 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-22 to 2025-01-12</t>
+          <t>2023-01-22 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>152 units</t>
+          <t>157 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>157 units</t>
+          <t>152 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
+++ b/Sufficient data/forecast_summary_B0C1M2BDNR.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1017,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1057,10 +1057,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-22 to 2025-01-19</t>
+          <t>2023-01-22 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>152 units</t>
+          <t>154 units</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
